--- a/Digital Data for arketypes_reviewed version_2025_02_10-CANC.xlsx
+++ b/Digital Data for arketypes_reviewed version_2025_02_10-CANC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerembukucu/Desktop/emre's codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerembukucu/Desktop/airflow-docker-project/dags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F2DBE0-57AC-B14B-B785-9B0118F6035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2569AAD-A4C1-7F48-AD14-1FF3B97145F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1020" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1680" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main sheet" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="249">
   <si>
     <t>profilingScore</t>
   </si>
@@ -538,24 +538,9 @@
     <t>Özellik</t>
   </si>
   <si>
-    <t>Kaynak</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>members_have_accounts.csv</t>
-  </si>
-  <si>
-    <t>foneria/digitaldata/project_archetypes/required_tables</t>
-  </si>
-  <si>
     <t>settings</t>
   </si>
   <si>
-    <t>digital_actions_with_account.csv</t>
-  </si>
-  <si>
     <t>filterSelection</t>
   </si>
   <si>
@@ -622,28 +607,6 @@
     <t>dya score varsa 1</t>
   </si>
   <si>
-    <t>otono portf incele ?? Nasil ?</t>
-  </si>
-  <si>
-    <t>signup olmayacak mı ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katilim fonlari listesi ? Ve funddetails-addFavourite yapanlar arasından detail da fon bilgisi mi var ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katilim fonlari listesi ? Burda hangi ViewName ? 
-Bunu yapanlar arasından detail da fon bilgisi mi var ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYA tamamlayan değil de girenlerin hepsi olur. </t>
-  </si>
-  <si>
-    <t>view name bu olan tüm kayıtları saymak yeterli mi?</t>
-  </si>
-  <si>
-    <t>hesaplarını kapattı ise dikkate almıyoruz</t>
-  </si>
-  <si>
     <t>yaş üzerinden</t>
   </si>
   <si>
@@ -657,12 +620,6 @@
   </si>
   <si>
     <t>tüm kayıtları view bu olan saymak</t>
-  </si>
-  <si>
-    <t>Soru 1</t>
-  </si>
-  <si>
-    <t>Soru 2</t>
   </si>
   <si>
     <t>bottomPopup - signUp</t>
@@ -685,17 +642,8 @@
     <t>Para transfer hesabı tanım count, action.csv den gelecek</t>
   </si>
   <si>
-    <t>Sorumlu</t>
-  </si>
-  <si>
     <t>View Name  : moneytransfer, detail:addbankaccount - surec tamamlanmaıs olabilir, diğer dosyadan bakılabilir. 
 Actions.csv de son kullanım zamanı da varmış</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>Kerem</t>
   </si>
   <si>
     <r>
@@ -828,14 +776,6 @@
 transaction tablosundan bakacagiz</t>
   </si>
   <si>
-    <t>popular
-transaction
-faiz tablosu gelecek</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -894,13 +834,76 @@
   </si>
   <si>
     <t>member details uzerinden hesaplandi</t>
+  </si>
+  <si>
+    <t>VERI NASIL URETILDI</t>
+  </si>
+  <si>
+    <t>ilgili kolonun adi</t>
+  </si>
+  <si>
+    <t>addbankaccount</t>
+  </si>
+  <si>
+    <t>bes ve otonom (2 farkli kolon)</t>
+  </si>
+  <si>
+    <t>pushnotification</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>filterselection</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>otonombuy</t>
+  </si>
+  <si>
+    <t>transactionshistory</t>
+  </si>
+  <si>
+    <t>generalsummary</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>canceltransaction</t>
+  </si>
+  <si>
+    <t>grihelpcenter</t>
+  </si>
+  <si>
+    <t>signup_night</t>
+  </si>
+  <si>
+    <t>signin_night</t>
+  </si>
+  <si>
+    <t>order_night</t>
+  </si>
+  <si>
+    <t>addfavourite</t>
+  </si>
+  <si>
+    <t>age_28_48</t>
+  </si>
+  <si>
+    <t>teknik notlar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +996,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1032,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1080,34 +1088,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1140,23 +1124,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1180,13 +1153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,28 +1165,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,31 +1192,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,13 +1210,31 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1278,7 +1242,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{EFAE8721-CC24-C549-AC8F-5A9B7A4142B7}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1296,7 +1260,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1309,77 +1273,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Times"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1447,66 +1342,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1529,6 +1364,77 @@
         </left>
         <right style="thin">
           <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Times"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
@@ -1578,37 +1484,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <family val="2"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1727,43 +1602,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6E77058-CC74-E949-A562-E78F1A066BCA}" name="Table3" displayName="Table3" ref="A1:I33" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{F67A53EC-5828-4B4E-A76E-19C933320668}" name="Sorumlu" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{0DC4A6E6-C276-CD4E-A928-CCF79291A43F}" name="TİP" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{9A26924A-2D71-C541-9E27-CE86E426C6C0}" name="Özellik" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{8D496CF0-8DD5-7243-81EA-7FFB647FA4D5}" name="View Name - Details" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{77DF62AD-D442-5C44-8268-07B68C6FE7F5}" name="G" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{5EE26362-DD1D-4A89-B0EC-02F24D3CADDA}" name="Soru 1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{9BCC0744-1262-45DD-94F3-1743C1BED361}" name="Soru 2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{91D61855-1DF1-F549-83CD-AB31B87880D4}" name="Kaynak" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{72D362CB-7A3A-0C46-8E3B-4F536BFFE305}" name="Path" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6E77058-CC74-E949-A562-E78F1A066BCA}" name="Table3" displayName="Table3" ref="A1:F33" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0DC4A6E6-C276-CD4E-A928-CCF79291A43F}" name="TİP" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{9A26924A-2D71-C541-9E27-CE86E426C6C0}" name="Özellik" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8D496CF0-8DD5-7243-81EA-7FFB647FA4D5}" name="View Name - Details" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{77DF62AD-D442-5C44-8268-07B68C6FE7F5}" name="VERI NASIL URETILDI" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{788555F5-3C2E-5248-A587-1959FAB6B71E}" name="ilgili kolonun adi" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{9BCC0744-1262-45DD-94F3-1743C1BED361}" name="teknik notlar" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB319A93-8689-B84B-9660-5C70A8095955}" name="Table2" displayName="Table2" ref="A1:G7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB319A93-8689-B84B-9660-5C70A8095955}" name="Table2" displayName="Table2" ref="A1:G7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:G7" xr:uid="{CB319A93-8689-B84B-9660-5C70A8095955}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{02A22B36-9860-AE42-831E-45383F966ECE}" name="FONERIALI" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0214F33B-5915-B84F-AAC7-109FF9E03E69}" name="ARAŞTIRMACI" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BEB36767-0B1C-F14E-BB11-F2F3E2145A19}" name="KATILIM" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{AD89E59B-7A8C-CD4A-B465-9B781E246812}" name="DETAYCI" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FF915929-8EB1-9A41-A565-8A4056C174DF}" name="NEWBIE" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{B1E6AA5B-0BC9-DA4B-B466-470B58DE298E}" name="GECE KUŞU" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F55D0A82-475B-A644-BC0E-B356BE807DC8}" name="AİLE İNSANI" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{02A22B36-9860-AE42-831E-45383F966ECE}" name="FONERIALI" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0214F33B-5915-B84F-AAC7-109FF9E03E69}" name="ARAŞTIRMACI" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BEB36767-0B1C-F14E-BB11-F2F3E2145A19}" name="KATILIM" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AD89E59B-7A8C-CD4A-B465-9B781E246812}" name="DETAYCI" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{FF915929-8EB1-9A41-A565-8A4056C174DF}" name="NEWBIE" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B1E6AA5B-0BC9-DA4B-B466-470B58DE298E}" name="GECE KUŞU" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F55D0A82-475B-A644-BC0E-B356BE807DC8}" name="AİLE İNSANI" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1FB2435-7CEE-4A43-839B-EC14451A3106}" name="Table1" displayName="Table1" ref="A3:G10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1FB2435-7CEE-4A43-839B-EC14451A3106}" name="Table1" displayName="Table1" ref="A3:G10" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A3:G10" xr:uid="{D1FB2435-7CEE-4A43-839B-EC14451A3106}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E5D08E52-3AAA-E644-8D43-C1A6AB96E18C}" name="Kullanıcı Tipi" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E5D08E52-3AAA-E644-8D43-C1A6AB96E18C}" name="Kullanıcı Tipi" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2549D7FF-9F22-824E-B993-B31225B38DDF}" name="Açıklama 1"/>
     <tableColumn id="3" xr3:uid="{FB5ED99B-14B9-D446-B253-9BD9DB0C6DC0}" name="Açıklama 2"/>
     <tableColumn id="4" xr3:uid="{E4A1315C-B804-F74A-BA33-38999FD8CC9C}" name="Açıklama 3"/>
@@ -2062,843 +1934,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C6CCB9-9732-704F-BE94-AFE20FC898AB}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="38" customWidth="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.5" style="3"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="22.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="12">
+      <c r="A1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="108">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="84">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="168">
+      <c r="A8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E8" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24">
+      <c r="A9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36">
+      <c r="A10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="96">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12">
+      <c r="A12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="132">
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="72">
+      <c r="A14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24">
+      <c r="A15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24">
+      <c r="A16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12">
+      <c r="A17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24">
+      <c r="A18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36">
+      <c r="A20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="72">
+      <c r="A21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36">
+      <c r="A22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="36">
+      <c r="A23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="36">
+      <c r="A24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="48">
+      <c r="A25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="48">
+      <c r="A26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48">
+      <c r="A27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="48">
+      <c r="A28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="E28" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12">
+      <c r="A29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12">
+      <c r="A30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12">
+      <c r="A31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24">
+      <c r="A32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12">
+      <c r="A33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="46.75" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="108">
-      <c r="A4" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12">
-      <c r="A5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="84">
-      <c r="A6" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24">
-      <c r="A7" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="168">
-      <c r="A8" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="36">
-      <c r="A10" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="96">
-      <c r="A11" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="12">
-      <c r="A12" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="132">
-      <c r="A13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="72">
-      <c r="A14" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="24">
-      <c r="A15" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="24">
-      <c r="A16" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="24">
-      <c r="A18" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="36">
-      <c r="A20" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="72">
-      <c r="A21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="36">
-      <c r="A22" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="36">
-      <c r="A23" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" ht="48">
-      <c r="A25" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" ht="48">
-      <c r="A26" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="48">
-      <c r="A27" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="48">
-      <c r="A28" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="24">
-      <c r="A29" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="24">
-      <c r="A30" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="E33" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="24">
-      <c r="A31" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="24">
-      <c r="A32" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" s="28"/>
-    </row>
-    <row r="35" spans="1:9" ht="36">
-      <c r="G35" s="39" t="s">
-        <v>225</v>
-      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="F35" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
